--- a/OUTPUT UKGCommon/martin time a.xlsx
+++ b/OUTPUT UKGCommon/martin time a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="246">
   <si>
     <t>EMPLID</t>
   </si>
@@ -670,52 +670,58 @@
     <t>1.25</t>
   </si>
   <si>
-    <t>CC/MARTIN/MARTINSOUTHHOSPITAL/CNO/NRS/ED-EMERGENCYDEPARTMENT/RN</t>
-  </si>
-  <si>
-    <t>CC/MARTIN/MARTINSOUTHHOSPITAL/CNO/NRS/ED-EMERGENCYDEPARTMENT/CN</t>
-  </si>
-  <si>
-    <t>CC/MARTIN/MARTINSOUTHHOSPITAL/CNO/NRS/INPAT-PCU2B/RN</t>
-  </si>
-  <si>
-    <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/INPAT-SURGICALUROLOGY4NE/RN</t>
-  </si>
-  <si>
-    <t>CC/MARTIN/MARTINSOUTHHOSPITAL/CNO/NRS/INPAT-TELE2A-2C/RN</t>
-  </si>
-  <si>
-    <t>CC/MARTIN/TRADITIONHOSPITAL/CNO/NRS/ED-EDHOLDINGOVERFLOW/RN</t>
-  </si>
-  <si>
-    <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/INPAT-ONCOLOGY3W/RN</t>
-  </si>
-  <si>
-    <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/INPAT-MED-SURG6E/RN</t>
-  </si>
-  <si>
-    <t>CC:3103-3103-31225-0-0-0-0-0</t>
-  </si>
-  <si>
-    <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/ED-EDHOLDINGOVERFLOW/RN</t>
-  </si>
-  <si>
-    <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/INPAT-OBSERVATION2E/RN</t>
-  </si>
-  <si>
-    <t>CC/MARTIN/MARTINSOUTHHOSPITAL/CNO/NRS/INPAT-CDU3B/RN</t>
-  </si>
-  <si>
-    <t>CC/MARTIN/TRADITIONHOSPITAL/CNO/NRS/INPAT-3RDFLOOR/RN</t>
-  </si>
-  <si>
-    <t>CC/MARTIN/MARTINSOUTHHOSPITAL/CNO/NRS/INPAT-MED-TELE3C/RN</t>
-  </si>
-  <si>
-    <t>CC:3101-3101-85211-0-0-0-0-0</t>
-  </si>
-  <si>
-    <t>CC:3101-3101-33018-0-0-0-0-0</t>
+    <t>CC/MARTIN/MARTINSOUTHHOSPITAL/CNO/NRS/ED-EMERGENCYDEPARTMENT/RN | 40,511,STD,DED,ChargePay</t>
+  </si>
+  <si>
+    <t>CC/MARTIN/MARTINSOUTHHOSPITAL/CNO/NRS/ED-EMERGENCYDEPARTMENT/CN | 40,511,STD,DED,ChargePay</t>
+  </si>
+  <si>
+    <t>CC/MARTIN/MARTINSOUTHHOSPITAL/CNO/NRS/INPAT-PCU2B/RN |  AGRN,00,NON,DED,SNN,N</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> | Swipe - Duplicate Out - Deleted  </t>
+  </si>
+  <si>
+    <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/INPAT-SURGICALUROLOGY4NE/RN |  AGRN,00,NON,DED,SNN,N</t>
+  </si>
+  <si>
+    <t>CC/MARTIN/MARTINSOUTHHOSPITAL/CNO/NRS/INPAT-TELE2A-2C/RN |  AGRN,00,NON,DED,SNN,N</t>
+  </si>
+  <si>
+    <t>CC/MARTIN/TRADITIONHOSPITAL/CNO/NRS/ED-EDHOLDINGOVERFLOW/RN |  AGRN,00,NON,DED,SNN,N</t>
+  </si>
+  <si>
+    <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/INPAT-ONCOLOGY3W/RN |  AGRN,00,NON,DED,SNN,N</t>
+  </si>
+  <si>
+    <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/INPAT-MED-SURG6E/RN | Incorrect Soft Key Selected AGRN,00,NON,DED,SNN,N</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> | CC:3103-3103-31225-0-0-0-0-0 |  AGRN,00,NON,DED,SNN,N</t>
+  </si>
+  <si>
+    <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/ED-EDHOLDINGOVERFLOW/RN |  AGRN,00,NON,DED,SNN,N</t>
+  </si>
+  <si>
+    <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/INPAT-OBSERVATION2E/RN |  AGRN,00,NON,DED,SNN,N</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> |  1M1FLA,40,NON,STD,DED,CIN3</t>
+  </si>
+  <si>
+    <t>CC/MARTIN/MARTINSOUTHHOSPITAL/CNO/NRS/INPAT-CDU3B/RN | Att-Forgot to Punch AGRN,00,NON,DED,SNN,N</t>
+  </si>
+  <si>
+    <t>CC/MARTIN/TRADITIONHOSPITAL/CNO/NRS/INPAT-3RDFLOOR/RN |  AGRN,00,NON,DED,SNN,N</t>
+  </si>
+  <si>
+    <t>CC/MARTIN/MARTINSOUTHHOSPITAL/CNO/NRS/INPAT-MED-TELE3C/RN |  AGRN,00,NON,DED,SNN,N</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> | CC:3101-3101-85211-0-0-0-0-0 |  AGRN,00,NON,DED,SNN,N</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> | CC:3101-3101-33018-0-0-0-0-0 |  AGRN,00,NON,DED,SNN,N</t>
   </si>
   <si>
     <t>CC/MARTIN/MARTINSOUTHHOSPITAL/CNO/NRS/ED-EMERGENCYDEPARTMENT/RN|3101-3101-31225</t>
@@ -1191,7 +1197,7 @@
         <v>218</v>
       </c>
       <c r="S2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1214,7 +1220,7 @@
         <v>192</v>
       </c>
       <c r="S3" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1237,7 +1243,7 @@
         <v>193</v>
       </c>
       <c r="S4" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1260,7 +1266,7 @@
         <v>193</v>
       </c>
       <c r="S5" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1283,7 +1289,7 @@
         <v>194</v>
       </c>
       <c r="S6" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -1309,7 +1315,7 @@
         <v>219</v>
       </c>
       <c r="S7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -1335,7 +1341,7 @@
         <v>219</v>
       </c>
       <c r="S8" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -1361,7 +1367,7 @@
         <v>220</v>
       </c>
       <c r="S9" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -1384,7 +1390,7 @@
         <v>192</v>
       </c>
       <c r="S10" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1407,7 +1413,7 @@
         <v>191</v>
       </c>
       <c r="S11" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1430,7 +1436,7 @@
         <v>191</v>
       </c>
       <c r="S12" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1453,7 +1459,7 @@
         <v>193</v>
       </c>
       <c r="S13" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1475,8 +1481,11 @@
       <c r="J14" t="s">
         <v>192</v>
       </c>
+      <c r="R14" t="s">
+        <v>221</v>
+      </c>
       <c r="S14" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1499,10 +1508,10 @@
         <v>193</v>
       </c>
       <c r="R15" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="S15" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1525,7 +1534,7 @@
         <v>193</v>
       </c>
       <c r="S16" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="17" spans="2:19">
@@ -1548,7 +1557,7 @@
         <v>193</v>
       </c>
       <c r="S17" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="18" spans="2:19">
@@ -1571,7 +1580,7 @@
         <v>195</v>
       </c>
       <c r="S18" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="19" spans="2:19">
@@ -1594,7 +1603,7 @@
         <v>196</v>
       </c>
       <c r="S19" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="20" spans="2:19">
@@ -1617,7 +1626,7 @@
         <v>191</v>
       </c>
       <c r="S20" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="21" spans="2:19">
@@ -1640,10 +1649,10 @@
         <v>197</v>
       </c>
       <c r="R21" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="S21" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="22" spans="2:19">
@@ -1666,7 +1675,7 @@
         <v>192</v>
       </c>
       <c r="S22" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="23" spans="2:19">
@@ -1689,7 +1698,7 @@
         <v>198</v>
       </c>
       <c r="S23" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="24" spans="2:19">
@@ -1712,7 +1721,7 @@
         <v>198</v>
       </c>
       <c r="S24" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="25" spans="2:19">
@@ -1735,7 +1744,7 @@
         <v>194</v>
       </c>
       <c r="S25" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="26" spans="2:19">
@@ -1758,10 +1767,10 @@
         <v>193</v>
       </c>
       <c r="R26" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="S26" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="27" spans="2:19">
@@ -1784,7 +1793,7 @@
         <v>191</v>
       </c>
       <c r="S27" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="28" spans="2:19">
@@ -1807,7 +1816,7 @@
         <v>193</v>
       </c>
       <c r="S28" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="29" spans="2:19">
@@ -1830,7 +1839,7 @@
         <v>195</v>
       </c>
       <c r="S29" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="30" spans="2:19">
@@ -1853,7 +1862,7 @@
         <v>195</v>
       </c>
       <c r="S30" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="31" spans="2:19">
@@ -1876,7 +1885,7 @@
         <v>192</v>
       </c>
       <c r="S31" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="32" spans="2:19">
@@ -1899,7 +1908,7 @@
         <v>192</v>
       </c>
       <c r="S32" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="33" spans="2:19">
@@ -1922,10 +1931,10 @@
         <v>193</v>
       </c>
       <c r="R33" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="S33" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="34" spans="2:19">
@@ -1948,7 +1957,7 @@
         <v>193</v>
       </c>
       <c r="S34" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="35" spans="2:19">
@@ -1971,7 +1980,7 @@
         <v>197</v>
       </c>
       <c r="S35" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="36" spans="2:19">
@@ -1994,10 +2003,10 @@
         <v>198</v>
       </c>
       <c r="R36" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="S36" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="37" spans="2:19">
@@ -2020,7 +2029,7 @@
         <v>191</v>
       </c>
       <c r="S37" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="38" spans="2:19">
@@ -2043,7 +2052,7 @@
         <v>193</v>
       </c>
       <c r="S38" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="39" spans="2:19">
@@ -2066,7 +2075,7 @@
         <v>198</v>
       </c>
       <c r="S39" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="40" spans="2:19">
@@ -2089,10 +2098,10 @@
         <v>191</v>
       </c>
       <c r="R40" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="S40" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="41" spans="2:19">
@@ -2115,7 +2124,7 @@
         <v>193</v>
       </c>
       <c r="S41" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="42" spans="2:19">
@@ -2138,7 +2147,7 @@
         <v>194</v>
       </c>
       <c r="S42" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="43" spans="2:19">
@@ -2161,7 +2170,7 @@
         <v>194</v>
       </c>
       <c r="S43" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="44" spans="2:19">
@@ -2184,7 +2193,7 @@
         <v>194</v>
       </c>
       <c r="S44" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="45" spans="2:19">
@@ -2207,7 +2216,7 @@
         <v>199</v>
       </c>
       <c r="S45" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="46" spans="2:19">
@@ -2230,7 +2239,7 @@
         <v>200</v>
       </c>
       <c r="S46" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="47" spans="2:19">
@@ -2253,7 +2262,7 @@
         <v>201</v>
       </c>
       <c r="S47" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="48" spans="2:19">
@@ -2276,7 +2285,7 @@
         <v>196</v>
       </c>
       <c r="S48" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="49" spans="2:19">
@@ -2299,7 +2308,7 @@
         <v>202</v>
       </c>
       <c r="S49" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="50" spans="2:19">
@@ -2322,7 +2331,7 @@
         <v>202</v>
       </c>
       <c r="S50" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="51" spans="2:19">
@@ -2345,7 +2354,7 @@
         <v>203</v>
       </c>
       <c r="S51" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="52" spans="2:19">
@@ -2368,7 +2377,7 @@
         <v>204</v>
       </c>
       <c r="S52" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="53" spans="2:19">
@@ -2391,7 +2400,7 @@
         <v>204</v>
       </c>
       <c r="S53" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="54" spans="2:19">
@@ -2414,7 +2423,7 @@
         <v>205</v>
       </c>
       <c r="S54" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="55" spans="2:19">
@@ -2437,7 +2446,7 @@
         <v>191</v>
       </c>
       <c r="S55" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="56" spans="2:19">
@@ -2460,7 +2469,7 @@
         <v>193</v>
       </c>
       <c r="S56" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="57" spans="2:19">
@@ -2483,7 +2492,7 @@
         <v>192</v>
       </c>
       <c r="S57" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="58" spans="2:19">
@@ -2506,10 +2515,10 @@
         <v>195</v>
       </c>
       <c r="R58" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="S58" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="59" spans="2:19">
@@ -2532,10 +2541,10 @@
         <v>193</v>
       </c>
       <c r="R59" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="S59" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="60" spans="2:19">
@@ -2558,10 +2567,10 @@
         <v>193</v>
       </c>
       <c r="R60" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="S60" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="61" spans="2:19">
@@ -2584,7 +2593,7 @@
         <v>206</v>
       </c>
       <c r="S61" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="62" spans="2:19">
@@ -2607,7 +2616,7 @@
         <v>194</v>
       </c>
       <c r="S62" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="63" spans="2:19">
@@ -2630,7 +2639,7 @@
         <v>207</v>
       </c>
       <c r="S63" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="64" spans="2:19">
@@ -2653,7 +2662,7 @@
         <v>206</v>
       </c>
       <c r="S64" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="65" spans="2:19">
@@ -2676,7 +2685,7 @@
         <v>194</v>
       </c>
       <c r="S65" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="66" spans="2:19">
@@ -2699,7 +2708,7 @@
         <v>208</v>
       </c>
       <c r="S66" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="67" spans="2:19">
@@ -2722,7 +2731,7 @@
         <v>198</v>
       </c>
       <c r="S67" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="68" spans="2:19">
@@ -2745,7 +2754,7 @@
         <v>206</v>
       </c>
       <c r="S68" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="69" spans="2:19">
@@ -2768,7 +2777,7 @@
         <v>191</v>
       </c>
       <c r="S69" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="70" spans="2:19">
@@ -2790,8 +2799,11 @@
       <c r="J70" t="s">
         <v>207</v>
       </c>
+      <c r="R70" t="s">
+        <v>230</v>
+      </c>
       <c r="S70" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="71" spans="2:19">
@@ -2814,7 +2826,7 @@
         <v>203</v>
       </c>
       <c r="S71" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="72" spans="2:19">
@@ -2837,7 +2849,7 @@
         <v>209</v>
       </c>
       <c r="S72" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="73" spans="2:19">
@@ -2860,7 +2872,7 @@
         <v>194</v>
       </c>
       <c r="S73" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="74" spans="2:19">
@@ -2877,7 +2889,7 @@
         <v>75</v>
       </c>
       <c r="S74" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="75" spans="2:19">
@@ -2900,7 +2912,7 @@
         <v>198</v>
       </c>
       <c r="S75" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="76" spans="2:19">
@@ -2923,7 +2935,7 @@
         <v>210</v>
       </c>
       <c r="S76" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="77" spans="2:19">
@@ -2940,7 +2952,7 @@
         <v>75</v>
       </c>
       <c r="S77" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="78" spans="2:19">
@@ -2963,7 +2975,7 @@
         <v>198</v>
       </c>
       <c r="S78" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="79" spans="2:19">
@@ -2980,7 +2992,7 @@
         <v>75</v>
       </c>
       <c r="S79" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="80" spans="2:19">
@@ -3003,7 +3015,7 @@
         <v>198</v>
       </c>
       <c r="S80" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="81" spans="2:19">
@@ -3026,7 +3038,7 @@
         <v>198</v>
       </c>
       <c r="S81" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="82" spans="2:19">
@@ -3049,7 +3061,7 @@
         <v>195</v>
       </c>
       <c r="S82" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="83" spans="2:19">
@@ -3072,7 +3084,7 @@
         <v>198</v>
       </c>
       <c r="S83" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="84" spans="2:19">
@@ -3095,7 +3107,7 @@
         <v>198</v>
       </c>
       <c r="S84" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="85" spans="2:19">
@@ -3118,7 +3130,7 @@
         <v>198</v>
       </c>
       <c r="S85" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="86" spans="2:19">
@@ -3141,7 +3153,7 @@
         <v>211</v>
       </c>
       <c r="S86" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="87" spans="2:19">
@@ -3163,8 +3175,11 @@
       <c r="J87" t="s">
         <v>212</v>
       </c>
+      <c r="R87" t="s">
+        <v>230</v>
+      </c>
       <c r="S87" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="88" spans="2:19">
@@ -3181,7 +3196,7 @@
         <v>75</v>
       </c>
       <c r="S88" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="89" spans="2:19">
@@ -3204,7 +3219,7 @@
         <v>198</v>
       </c>
       <c r="S89" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="90" spans="2:19">
@@ -3221,7 +3236,7 @@
         <v>75</v>
       </c>
       <c r="S90" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="91" spans="2:19">
@@ -3244,7 +3259,7 @@
         <v>191</v>
       </c>
       <c r="S91" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="92" spans="2:19">
@@ -3267,7 +3282,7 @@
         <v>191</v>
       </c>
       <c r="S92" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="93" spans="2:19">
@@ -3290,7 +3305,7 @@
         <v>191</v>
       </c>
       <c r="S93" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="94" spans="2:19">
@@ -3313,7 +3328,7 @@
         <v>191</v>
       </c>
       <c r="S94" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="95" spans="2:19">
@@ -3336,7 +3351,7 @@
         <v>191</v>
       </c>
       <c r="S95" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="96" spans="2:19">
@@ -3359,7 +3374,7 @@
         <v>198</v>
       </c>
       <c r="S96" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="97" spans="2:19">
@@ -3382,7 +3397,7 @@
         <v>191</v>
       </c>
       <c r="S97" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="98" spans="2:19">
@@ -3405,7 +3420,7 @@
         <v>198</v>
       </c>
       <c r="S98" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="99" spans="2:19">
@@ -3428,10 +3443,10 @@
         <v>198</v>
       </c>
       <c r="R99" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="S99" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="100" spans="2:19">
@@ -3454,10 +3469,10 @@
         <v>198</v>
       </c>
       <c r="R100" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="S100" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="101" spans="2:19">
@@ -3480,7 +3495,7 @@
         <v>191</v>
       </c>
       <c r="S101" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="102" spans="2:19">
@@ -3503,10 +3518,10 @@
         <v>194</v>
       </c>
       <c r="R102" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="S102" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="103" spans="2:19">
@@ -3529,10 +3544,10 @@
         <v>198</v>
       </c>
       <c r="R103" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="S103" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="104" spans="2:19">
@@ -3555,7 +3570,7 @@
         <v>193</v>
       </c>
       <c r="S104" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="105" spans="2:19">
@@ -3578,7 +3593,7 @@
         <v>198</v>
       </c>
       <c r="S105" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="106" spans="2:19">
@@ -3601,7 +3616,7 @@
         <v>198</v>
       </c>
       <c r="S106" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="107" spans="2:19">
@@ -3624,7 +3639,7 @@
         <v>198</v>
       </c>
       <c r="S107" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="108" spans="2:19">
@@ -3647,10 +3662,10 @@
         <v>192</v>
       </c>
       <c r="R108" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="S108" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="109" spans="2:19">
@@ -3673,10 +3688,10 @@
         <v>198</v>
       </c>
       <c r="R109" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="S109" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="110" spans="2:19">
@@ -3699,7 +3714,7 @@
         <v>193</v>
       </c>
       <c r="S110" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="111" spans="2:19">
@@ -3722,7 +3737,7 @@
         <v>197</v>
       </c>
       <c r="S111" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="112" spans="2:19">
@@ -3745,10 +3760,10 @@
         <v>193</v>
       </c>
       <c r="R112" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="S112" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="113" spans="2:19">
@@ -3771,7 +3786,7 @@
         <v>198</v>
       </c>
       <c r="S113" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="114" spans="2:19">
@@ -3794,7 +3809,7 @@
         <v>213</v>
       </c>
       <c r="S114" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="115" spans="2:19">
@@ -3817,7 +3832,7 @@
         <v>214</v>
       </c>
       <c r="S115" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="116" spans="2:19">
@@ -3837,7 +3852,7 @@
         <v>180</v>
       </c>
       <c r="S116" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="117" spans="2:19">
@@ -3859,8 +3874,11 @@
       <c r="J117" t="s">
         <v>215</v>
       </c>
+      <c r="R117" t="s">
+        <v>230</v>
+      </c>
       <c r="S117" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="118" spans="2:19">
@@ -3883,7 +3901,7 @@
         <v>216</v>
       </c>
       <c r="S118" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="119" spans="2:19">
@@ -3906,7 +3924,7 @@
         <v>216</v>
       </c>
       <c r="S119" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="120" spans="2:19">
@@ -3929,7 +3947,7 @@
         <v>216</v>
       </c>
       <c r="S120" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="121" spans="2:19">
@@ -3946,7 +3964,7 @@
         <v>76</v>
       </c>
       <c r="S121" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="122" spans="2:19">
@@ -3969,7 +3987,7 @@
         <v>216</v>
       </c>
       <c r="S122" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="123" spans="2:19">
@@ -3992,7 +4010,7 @@
         <v>214</v>
       </c>
       <c r="S123" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="124" spans="2:19">
@@ -4015,7 +4033,7 @@
         <v>199</v>
       </c>
       <c r="S124" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="125" spans="2:19">
@@ -4038,7 +4056,7 @@
         <v>217</v>
       </c>
       <c r="S125" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="126" spans="2:19">
@@ -4061,7 +4079,7 @@
         <v>203</v>
       </c>
       <c r="S126" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="127" spans="2:19">
@@ -4081,10 +4099,10 @@
         <v>189</v>
       </c>
       <c r="R127" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="S127" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="128" spans="2:19">
@@ -4107,273 +4125,13 @@
         <v>216</v>
       </c>
       <c r="R128" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="S128" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008A7B740158B06348BBFDD0A82FAE521C" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="15f4007343d69c31faccb6c57ce3ea95">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="45be6600-ce97-4f91-b2b5-90c5c801df6a" xmlns:ns3="4ff60255-49bc-4e52-8060-8afe9711eecb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="af64184185331e52028044e26cabcf7e" ns2:_="" ns3:_="">
-    <xsd:import namespace="45be6600-ce97-4f91-b2b5-90c5c801df6a"/>
-    <xsd:import namespace="4ff60255-49bc-4e52-8060-8afe9711eecb"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="45be6600-ce97-4f91-b2b5-90c5c801df6a" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="12" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="18" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="21" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="94b3629e-20aa-442c-aac2-3c67759175e0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="23" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="4ff60255-49bc-4e52-8060-8afe9711eecb" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="16" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="17" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="22" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{6c69ecb4-97a0-434f-9afd-668c5bcfe455}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="4ff60255-49bc-4e52-8060-8afe9711eecb">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2FC8E939-755F-44AB-BDEF-5F477F8DEF8E}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0AC3F9A-4CD7-4B08-8C62-B00E39CB0546}"/>
 </file>
--- a/OUTPUT UKGCommon/martin time a.xlsx
+++ b/OUTPUT UKGCommon/martin time a.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:S128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -534,31 +534,35 @@
       <c r="A2" t="inlineStr"/>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PHILISTIN, JESSICA</t>
+          <t>ABEL, STACY</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>04/23/2023</t>
+          <t>04/22/2023</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>3101-3101-31225</t>
+        </is>
+      </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>ABS Absence</t>
+          <t>Regular</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>04/23/2023 11:32</t>
+          <t>04/22/2023 18:28</t>
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="K2" t="inlineStr"/>
@@ -568,38 +572,50 @@
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINSOUTHHOSPITAL/CNO/NRS/ED-EMERGENCYDEPARTMENT/RN | 40,511,STD,DED,ChargePay</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINSOUTHHOSPITAL/CNO/NRS/ED-EMERGENCYDEPARTMENT/RN|3101-3101-31225</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PHILISTIN, JESSICA</t>
+          <t>ABEL, STACY</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>04/23/2023</t>
+          <t>04/27/2023</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>3101-3101-31225</t>
+        </is>
+      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>ABS Absence</t>
+          <t>Regular</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>04/23/2023 11:32</t>
+          <t>04/27/2023 18:35</t>
         </is>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>11.75</t>
+          <t>12.75</t>
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
@@ -610,22 +626,30 @@
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINSOUTHHOSPITAL/CNO/NRS/ED-EMERGENCYDEPARTMENT/RN|3101-3101-31225</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr"/>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PHILISTIN, JESSICA</t>
+          <t>ABEL, STACY</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>04/24/2023</t>
+          <t>04/28/2023</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>3101-3101-31225</t>
+        </is>
+      </c>
       <c r="F4" t="inlineStr">
         <is>
           <t>Regular</t>
@@ -633,14 +657,14 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>04/24/2023 11:32</t>
+          <t>04/28/2023 18:38</t>
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>12.75</t>
+          <t>12.50</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
@@ -650,61 +674,46 @@
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> | Condensed Employee Time Detail
-Time 
-Period :Previous Pay Period Executed 
-on :5/08/2023 11:32 AM
-Query : agency Q Printed for : Garcia, Denise
-Currency 
-Code :USD
-Error [WFM-COMMON-1234] Failed to retrieve some data from the providers (Actual Total Wages (Include 
-Corrections)) [WFM-COMMON-1234] Failed to retrieve some data from the providers (Actual Wages)[WFM-
-COMMON-1234] Failed to retrieve some data from the providers (Time Zone)
-Page 21 of 23CC/MARTIN/TRADITION HOSPITAL/CNO/NRS/ED-ED HOLDING OVERFLOW/RN CC:3103-3103-31232-0-0-0-0-0
-RAG - Regular Agency 12.75  0.00
-Labor Summary
-Pay Code Hours Wages Days
-RAG - Regular Agency 74.75 0.00 0.00
-Combined Pay Code Summary
-Pay Code Hours Wages Days
-Regular Pay Code Summary
-Pay Code Hours Wages Days
-RAG - Regular Agency 74.75 0.00 0.00</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINSOUTHHOSPITAL/CNO/NRS/ED-EMERGENCYDEPARTMENT/RN|3101-3101-31225</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr"/>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PHILISTIN, JESSICA</t>
+          <t>ABEL, STACY</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>04/23/2023</t>
+          <t>04/29/2023</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>3101-3101-31225</t>
+        </is>
+      </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>On Call</t>
+          <t>Regular</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>04/23/2023 11:32</t>
+          <t>04/29/2023 18:34</t>
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>12.50</t>
         </is>
       </c>
       <c r="K5" t="inlineStr"/>
@@ -714,48 +723,6083 @@
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> | Condensed Employee Time Detail
-Time 
-Period :Previous Pay Period Executed 
-on :5/08/2023 11:32 AM
-Query : agency Q Printed for : Garcia, Denise
-Currency 
-Code :USD
-Error [WFM-COMMON-1234] Failed to retrieve some data from the providers (Actual Total Wages (Include 
-Corrections)) [WFM-COMMON-1234] Failed to retrieve some data from the providers (Actual Wages)[WFM-
-COMMON-1234] Failed to retrieve some data from the providers (Time Zone)
-Page 23 of 23CC/MARTIN/MARTIN SOUTH HOSPITAL/CNO/NRS/PERIOP-OR/TECH CC:3101-3101-85211-0-0-0-0-0
-RAG - Regular Agency 6.00  0.00
-Labor Summary
-Pay Code Hours Wages Days
-RAG - Regular Agency 4.00 0.00 0.00
-CIN Call In 2.25  0.00
-OC3 On Call 3 10.00  0.00
-RAG - Regular Agency 69.50  0.00
-REG Regular 2.25  0.00
-Combined Pay Code Summary
-Pay Code Hours Wages Days
-Regular Pay Code Summary
-Pay Code Hours Wages Days
-CIN Call In 2.25 0.00 0.00
-OC3 On Call 3 10.00  0.00
-RAG - Regular Agency 73.50  0.00
-REG Regular 2.25  0.00
-Combined Pay Code Report Summary
-Pay Code Hours Wages Days
-Normal Pay Code Report Summary
-Pay Code Hours Wages Days
-ABS Absence 72.00 0.00 0.00
-CIN Call In 11.25  0.00
-OC3 On Call 3 59.75  0.00
-RAG - Regular Agency 951.25  0.00
-REG Regular 36.25  0.00
-Employee Count: 18</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINSOUTHHOSPITAL/CNO/NRS/ED-EMERGENCYDEPARTMENT/RN|3101-3101-31225</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ABEL, STACY</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>05/04/2023</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>3101-3101-31225</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>05/04/2023 18:38</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>11.75</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINSOUTHHOSPITAL/CNO/NRS/ED-EMERGENCYDEPARTMENT/RN|3101-3101-31225</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ABEL, STACY</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>05/05/2023</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>3101-3101-31225</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>05/05/2023 18:28</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>12.75</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINSOUTHHOSPITAL/CNO/NRS/ED-EMERGENCYDEPARTMENT/CN | 40,511,STD,DED,ChargePay</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINSOUTHHOSPITAL/CNO/NRS/ED-EMERGENCYDEPARTMENT/RN|3101-3101-31225</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ABEL, STACY</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>05/06/2023</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>3101-3101-31225</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>05/06/2023 18:24</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>12.25</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINSOUTHHOSPITAL/CNO/NRS/ED-EMERGENCYDEPARTMENT/CN | 40,511,STD,DED,ChargePay</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINSOUTHHOSPITAL/CNO/NRS/ED-EMERGENCYDEPARTMENT/RN|3101-3101-31225</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>BROWNE, BROOKE</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>04/25/2023</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>3101-3101-31600</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>04/25/2023 06:54</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>12.25</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINSOUTHHOSPITAL/CNO/NRS/INPAT-PCU2B/RN |  AGRN,00,NON,DED,SNN,N</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/INPAT-TELEMETRY5NE/RN|3100-3100-31432</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>BROWNE, BROOKE</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>04/26/2023</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>3100-3100-31432</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>04/26/2023 06:59</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>12.75</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/INPAT-TELEMETRY5NE/RN|3100-3100-31432</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>BROWNE, BROOKE</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>04/29/2023</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>3100-3100-31432</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>ABS Absence</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>04/29/2023 07:00</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/INPAT-TELEMETRY5NE/RN|3100-3100-31432</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>BROWNE, BROOKE</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>04/30/2023</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>3100-3100-31432</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>ABS Absence</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>04/30/2023 07:00</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/INPAT-TELEMETRY5NE/RN|3100-3100-31432</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>BROWNE, BROOKE</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>05/03/2023</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>3100-3100-31432</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>05/03/2023 06:53</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>12.50</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/INPAT-TELEMETRY5NE/RN|3100-3100-31432</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>BROWNE, BROOKE</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>05/04/2023</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>3100-3100-31432</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>05/04/2023 06:53</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>12.75</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> | Swipe - Duplicate Out - Deleted  </t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/INPAT-TELEMETRY5NE/RN|3100-3100-31432</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>CESARE, RENATA</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>04/27/2023</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>3100-3100-31427</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>04/27/2023 18:53</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>12.50</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/INPAT-SURGICALUROLOGY4NE/RN |  AGRN,00,NON,DED,SNN,N</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/INPAT-TELEMETRY5NE/RN|3100-3100-31432</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr"/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>CESARE, RENATA</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>04/28/2023</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>3100-3100-31432</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>04/28/2023 18:52</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>12.50</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/INPAT-TELEMETRY5NE/RN|3100-3100-31432</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>CESARE, RENATA</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>04/29/2023</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>3100-3100-31432</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>04/29/2023 18:52</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>12.50</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/INPAT-TELEMETRY5NE/RN|3100-3100-31432</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr"/>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>CESARE, RENATA</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>04/30/2023</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>3100-3100-31432</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>04/30/2023 18:55</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>12.25</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/INPAT-TELEMETRY5NE/RN|3100-3100-31432</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr"/>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>CESARE, RENATA</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>05/01/2023</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>3100-3100-31432</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>05/01/2023 18:52</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/INPAT-TELEMETRY5NE/RN|3100-3100-31432</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr"/>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>CESARE, RENATA</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>05/04/2023</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>3100-3100-31432</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>ABS Absence</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>05/04/2023 19:00</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/INPAT-TELEMETRY5NE/RN|3100-3100-31432</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>FOERTMEYER, NICOLE</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>04/25/2023</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>3101-3101-31437</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>04/25/2023 06:49</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>13.00</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINSOUTHHOSPITAL/CNO/NRS/INPAT-TELE2A-2C/RN |  AGRN,00,NON,DED,SNN,N</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/INPAT-MED-SURG6E/RN|3100-3100-31426</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr"/>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>FOERTMEYER, NICOLE</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>04/26/2023</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>3100-3100-31426</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>04/26/2023 06:51</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>12.75</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/INPAT-MED-SURG6E/RN|3100-3100-31426</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr"/>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>FOERTMEYER, NICOLE</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>04/28/2023</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>3100-3100-31426</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>04/28/2023 06:53</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/INPAT-MED-SURG6E/RN|3100-3100-31426</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr"/>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>FOERTMEYER, NICOLE</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>05/01/2023</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>3100-3100-31426</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>05/01/2023 06:53</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/INPAT-MED-SURG6E/RN|3100-3100-31426</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr"/>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>FOERTMEYER, NICOLE</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>05/02/2023</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>3100-3100-31426</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>05/02/2023 06:53</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>11.75</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/INPAT-MED-SURG6E/RN|3100-3100-31426</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr"/>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>FOERTMEYER, NICOLE</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>05/04/2023</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>3103-3103-31232</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>05/04/2023 06:47</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>12.50</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/TRADITIONHOSPITAL/CNO/NRS/ED-EDHOLDINGOVERFLOW/RN |  AGRN,00,NON,DED,SNN,N</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/INPAT-MED-SURG6E/RN|3100-3100-31426</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr"/>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>HERNANDEZ, CAROLINA</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>04/22/2023</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>3100-3100-31426</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>04/22/2023 18:53</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/INPAT-MED-SURG6E/RN|3100-3100-31426</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr"/>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>HERNANDEZ, CAROLINA</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>04/25/2023</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>3100-3100-31426</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>04/25/2023 18:54</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>12.50</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/INPAT-MED-SURG6E/RN|3100-3100-31426</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr"/>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>HERNANDEZ, CAROLINA</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>04/26/2023</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>3100-3100-31426</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>04/26/2023 18:55</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>12.25</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/INPAT-MED-SURG6E/RN|3100-3100-31426</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr"/>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>HERNANDEZ, CAROLINA</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>04/29/2023</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>3100-3100-31426</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>04/29/2023 18:54</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>12.25</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/INPAT-MED-SURG6E/RN|3100-3100-31426</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr"/>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>HERNANDEZ, CAROLINA</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>04/30/2023</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>3100-3100-31426</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>04/30/2023 18:58</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>12.75</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/INPAT-MED-SURG6E/RN|3100-3100-31426</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr"/>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>HERNANDEZ, CAROLINA</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>05/02/2023</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>3100-3100-31426</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>05/02/2023 18:54</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>12.75</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/INPAT-MED-SURG6E/RN|3100-3100-31426</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr"/>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>HERNANDEZ, CAROLINA</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>05/06/2023</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>3100-3100-31425</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>05/06/2023 18:57</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>12.50</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/INPAT-ONCOLOGY3W/RN |  AGRN,00,NON,DED,SNN,N</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/INPAT-MED-SURG6E/RN|3100-3100-31426</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr"/>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>JACK, KRISHA</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>04/26/2023</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>3100-3100-31432</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>04/26/2023 19:06</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>12.50</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/INPAT-TELEMETRY5NE/RN|3100-3100-31432</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr"/>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>JACK, KRISHA</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>04/27/2023</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>3100-3100-31432</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>04/27/2023 18:56</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>13.00</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/INPAT-TELEMETRY5NE/RN|3100-3100-31432</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr"/>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>JACK, KRISHA</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>04/29/2023</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>3100-3100-31426</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>04/29/2023 19:00</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/INPAT-MED-SURG6E/RN | Incorrect Soft Key Selected AGRN,00,NON,DED,SNN,N</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/INPAT-TELEMETRY5NE/RN|3100-3100-31432</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr"/>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>JACK, KRISHA</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>05/03/2023</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>3100-3100-31432</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>ABS Absence</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>05/03/2023 19:00</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/INPAT-TELEMETRY5NE/RN|3100-3100-31432</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr"/>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>JACK, KRISHA</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>05/04/2023</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>3100-3100-31432</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>05/04/2023 19:00</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>12.50</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/INPAT-TELEMETRY5NE/RN|3100-3100-31432</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr"/>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>JACK, KRISHA</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>05/05/2023</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>3100-3100-31432</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>05/05/2023 19:02</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/INPAT-TELEMETRY5NE/RN|3100-3100-31432</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr"/>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>LOUIS-JEUNE, JEANELLE</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>04/22/2023</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>3103-3103-31225</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>04/22/2023 18:55</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> | CC:3103-3103-31225-0-0-0-0-0 |  AGRN,00,NON,DED,SNN,N</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/ED-EMERGENCYDEPARTMENT/RN|3100-3100-31225</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr"/>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>LOUIS-JEUNE, JEANELLE</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>04/23/2023</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>3100-3100-31225</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>04/23/2023 18:56</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>12.50</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr"/>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/ED-EMERGENCYDEPARTMENT/RN|3100-3100-31225</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr"/>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>LOUIS-JEUNE, JEANELLE</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>04/28/2023</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>3100-3100-31225</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>04/28/2023 18:55</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>11.75</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr"/>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/ED-EMERGENCYDEPARTMENT/RN|3100-3100-31225</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr"/>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>LOUIS-JEUNE, JEANELLE</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>04/29/2023</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>3100-3100-31225</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>04/29/2023 18:56</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>11.75</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr"/>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/ED-EMERGENCYDEPARTMENT/RN|3100-3100-31225</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr"/>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>LOUIS-JEUNE, JEANELLE</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>04/30/2023</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>3100-3100-31225</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>04/30/2023 18:58</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>11.75</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr"/>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/ED-EMERGENCYDEPARTMENT/RN|3100-3100-31225</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr"/>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>MUNDY DAVIDSON, TRACEY</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>04/24/2023</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>3111-3110-15056</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>04/24/2023 07:49</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>10.25</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr"/>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/TREASURECOASTMEDICALPAVILION/COS/MHPGOFFIC/PEDIATRICINTEGRATIVEMEDICINE/LPN|3111-3110-15056</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr"/>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>MUNDY DAVIDSON, TRACEY</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>04/25/2023</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>3111-3110-15056</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>04/25/2023 07:49</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>9.75</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr"/>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/TREASURECOASTMEDICALPAVILION/COS/MHPGOFFIC/PEDIATRICINTEGRATIVEMEDICINE/LPN|3111-3110-15056</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr"/>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>MUNDY DAVIDSON, TRACEY</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>04/26/2023</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>3111-3110-15056</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>04/26/2023 07:52</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr"/>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/TREASURECOASTMEDICALPAVILION/COS/MHPGOFFIC/PEDIATRICINTEGRATIVEMEDICINE/LPN|3111-3110-15056</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr"/>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>MUNDY DAVIDSON, TRACEY</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>04/27/2023</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>3111-3110-15056</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>04/27/2023 07:55</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/TREASURECOASTMEDICALPAVILION/COS/MHPGOFFIC/PEDIATRICINTEGRATIVEMEDICINE/LPN|3111-3110-15056</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr"/>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>MUNDY DAVIDSON, TRACEY</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>04/28/2023</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>3111-3110-15056</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>04/28/2023 07:55</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>9.25</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/TREASURECOASTMEDICALPAVILION/COS/MHPGOFFIC/PEDIATRICINTEGRATIVEMEDICINE/LPN|3111-3110-15056</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr"/>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>MUNDY DAVIDSON, TRACEY</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>05/01/2023</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>3111-3110-15056</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>05/01/2023 07:49</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>9.25</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr"/>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/TREASURECOASTMEDICALPAVILION/COS/MHPGOFFIC/PEDIATRICINTEGRATIVEMEDICINE/LPN|3111-3110-15056</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr"/>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>MUNDY DAVIDSON, TRACEY</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>05/02/2023</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>3111-3110-15056</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>05/02/2023 07:45</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr"/>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/TREASURECOASTMEDICALPAVILION/COS/MHPGOFFIC/PEDIATRICINTEGRATIVEMEDICINE/LPN|3111-3110-15056</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr"/>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>MUNDY DAVIDSON, TRACEY</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>05/03/2023</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>3111-3110-15056</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>05/03/2023 07:54</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="inlineStr"/>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/TREASURECOASTMEDICALPAVILION/COS/MHPGOFFIC/PEDIATRICINTEGRATIVEMEDICINE/LPN|3111-3110-15056</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr"/>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>MUNDY DAVIDSON, TRACEY</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>05/04/2023</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>3111-3110-15056</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>05/04/2023 07:48</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="inlineStr"/>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/TREASURECOASTMEDICALPAVILION/COS/MHPGOFFIC/PEDIATRICINTEGRATIVEMEDICINE/LPN|3111-3110-15056</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr"/>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>MUNDY DAVIDSON, TRACEY</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>05/05/2023</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>3111-3110-15056</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>05/05/2023 07:53</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr"/>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/TREASURECOASTMEDICALPAVILION/COS/MHPGOFFIC/PEDIATRICINTEGRATIVEMEDICINE/LPN|3111-3110-15056</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr"/>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>NERESTANT, ELIOTIDE</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>04/26/2023</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>3100-3100-31429</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>ABS Absence</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>04/26/2023 19:00</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr"/>
+      <c r="R55" t="inlineStr"/>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/INPAT-CLINICALDECISIONUNIT2W/RN|3100-3100-31429</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr"/>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>NERESTANT, ELIOTIDE</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>04/27/2023</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>3100-3100-31429</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>04/27/2023 18:57</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>12.50</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr"/>
+      <c r="R56" t="inlineStr"/>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/INPAT-CLINICALDECISIONUNIT2W/RN|3100-3100-31429</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr"/>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>NERESTANT, ELIOTIDE</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>04/28/2023</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>3100-3100-31429</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>04/28/2023 18:55</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>12.75</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr"/>
+      <c r="R57" t="inlineStr"/>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/INPAT-CLINICALDECISIONUNIT2W/RN|3100-3100-31429</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr"/>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>NERESTANT, ELIOTIDE</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>05/03/2023</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>3100-3100-31232</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>05/03/2023 18:58</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>12.25</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/ED-EDHOLDINGOVERFLOW/RN |  AGRN,00,NON,DED,SNN,N</t>
+        </is>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/INPAT-CLINICALDECISIONUNIT2W/RN|3100-3100-31429</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr"/>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>NERESTANT, ELIOTIDE</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>05/04/2023</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>3100-3100-31812</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>05/04/2023 18:53</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>12.50</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr"/>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/INPAT-OBSERVATION2E/RN |  AGRN,00,NON,DED,SNN,N</t>
+        </is>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/INPAT-CLINICALDECISIONUNIT2W/RN|3100-3100-31429</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr"/>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>NERESTANT, ELIOTIDE</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>05/05/2023</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>3100-3100-31812</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>05/05/2023 19:00</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>12.50</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr"/>
+      <c r="O60" t="inlineStr"/>
+      <c r="P60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr"/>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/INPAT-OBSERVATION2E/RN |  AGRN,00,NON,DED,SNN,N</t>
+        </is>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/INPAT-CLINICALDECISIONUNIT2W/RN|3100-3100-31429</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr"/>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>PARRISH, SYDNEY</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>04/27/2023</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>3100-3100-33018</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>On Call</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>04/27/2023 19:00</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>11.25</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr"/>
+      <c r="P61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr"/>
+      <c r="R61" t="inlineStr"/>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/PERIOP-OR/TECH|3100-3100-33018</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr"/>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>PARRISH, SYDNEY</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>04/28/2023</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>3100-3100-33018</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>04/28/2023 06:23</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>11.75</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr"/>
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr"/>
+      <c r="R62" t="inlineStr"/>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/PERIOP-OR/TECH|3100-3100-33018</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr"/>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>PARRISH, SYDNEY</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>04/29/2023</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>3100-3100-33018</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>On Call</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>04/29/2023 16:30</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr"/>
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr"/>
+      <c r="R63" t="inlineStr"/>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/PERIOP-OR/TECH|3100-3100-33018</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr"/>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>PARRISH, SYDNEY</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>04/29/2023</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>3100-3100-33018</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>On Call</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>04/29/2023 19:00</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>11.25</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="inlineStr"/>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/PERIOP-OR/TECH|3100-3100-33018</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr"/>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>PARRISH, SYDNEY</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>05/01/2023</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>3100-3100-33018</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>05/01/2023 06:28</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>11.75</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr"/>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr"/>
+      <c r="R65" t="inlineStr"/>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/PERIOP-OR/TECH|3100-3100-33018</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr"/>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>PARRISH, SYDNEY</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>05/02/2023</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>3100-3100-33018</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>05/02/2023 06:22</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="inlineStr"/>
+      <c r="O66" t="inlineStr"/>
+      <c r="P66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr"/>
+      <c r="R66" t="inlineStr"/>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/PERIOP-OR/TECH|3100-3100-33018</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr"/>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>PARRISH, SYDNEY</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>05/03/2023</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>3100-3100-33018</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>05/03/2023 06:25</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="inlineStr"/>
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="inlineStr"/>
+      <c r="Q67" t="inlineStr"/>
+      <c r="R67" t="inlineStr"/>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/PERIOP-OR/TECH|3100-3100-33018</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr"/>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>PARRISH, SYDNEY</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>05/03/2023</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>3100-3100-33018</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>On Call</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>05/03/2023 19:00</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>11.25</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr"/>
+      <c r="R68" t="inlineStr"/>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/PERIOP-OR/TECH|3100-3100-33018</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr"/>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>PERGALSKE, BRENNA</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>04/22/2023</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>3100-3100-33018</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>On Call</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>04/22/2023 19:00</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr"/>
+      <c r="R69" t="inlineStr"/>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/PERIOP-OR/TECH|3100-3100-33018</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr"/>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>PERGALSKE, BRENNA</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>04/23/2023</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>3100-3100-33018</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>04/23/2023 18:54</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="inlineStr"/>
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr"/>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> |  1M1FLA,40,NON,STD,DED,CIN3</t>
+        </is>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/PERIOP-OR/TECH|3100-3100-33018</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr"/>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>PERGALSKE, BRENNA</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>04/23/2023</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>3100-3100-33018</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>On Call</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>04/23/2023 19:00</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr"/>
+      <c r="R71" t="inlineStr"/>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/PERIOP-OR/TECH|3100-3100-33018</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr"/>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>PERGALSKE, BRENNA</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>04/24/2023</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>3100-3100-33018</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>04/24/2023 06:16</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>11.50</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="inlineStr"/>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr"/>
+      <c r="R72" t="inlineStr"/>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/PERIOP-OR/TECH|3100-3100-33018</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr"/>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>PERGALSKE, BRENNA</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>04/25/2023</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>3100-3100-33018</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>04/25/2023 06:19</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>11.75</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="inlineStr"/>
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr"/>
+      <c r="R73" t="inlineStr"/>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/PERIOP-OR/TECH|3100-3100-33018</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr"/>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>PERGALSKE, BRENNA</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>04/27/2023</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>3100-3100-33018</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Unexcused / Absence</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="inlineStr"/>
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr"/>
+      <c r="R74" t="inlineStr"/>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/PERIOP-OR/TECH|3100-3100-33018</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr"/>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>PERGALSKE, BRENNA</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>04/27/2023</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>3100-3100-33018</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>ABS Absence</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>04/27/2023 06:30</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="inlineStr"/>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr"/>
+      <c r="R75" t="inlineStr"/>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/PERIOP-OR/TECH|3100-3100-33018</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr"/>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>PERGALSKE, BRENNA</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>05/01/2023</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>3100-3100-33018</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>05/01/2023 06:19</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>11.00</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="inlineStr"/>
+      <c r="O76" t="inlineStr"/>
+      <c r="P76" t="inlineStr"/>
+      <c r="Q76" t="inlineStr"/>
+      <c r="R76" t="inlineStr"/>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/PERIOP-OR/TECH|3100-3100-33018</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr"/>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>PERGALSKE, BRENNA</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>05/04/2023</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>3100-3100-33018</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Unexcused / Absence</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="inlineStr"/>
+      <c r="O77" t="inlineStr"/>
+      <c r="P77" t="inlineStr"/>
+      <c r="Q77" t="inlineStr"/>
+      <c r="R77" t="inlineStr"/>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/PERIOP-OR/TECH|3100-3100-33018</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr"/>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>PERGALSKE, BRENNA</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>05/04/2023</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>3100-3100-33018</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>ABS Absence</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>05/04/2023 06:30</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="inlineStr"/>
+      <c r="O78" t="inlineStr"/>
+      <c r="P78" t="inlineStr"/>
+      <c r="Q78" t="inlineStr"/>
+      <c r="R78" t="inlineStr"/>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/PERIOP-OR/TECH|3100-3100-33018</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr"/>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>PERGALSKE, BRENNA</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>05/05/2023</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>3100-3100-33018</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Unexcused / Absence</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="inlineStr"/>
+      <c r="O79" t="inlineStr"/>
+      <c r="P79" t="inlineStr"/>
+      <c r="Q79" t="inlineStr"/>
+      <c r="R79" t="inlineStr"/>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/PERIOP-OR/TECH|3100-3100-33018</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr"/>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>PERGALSKE, BRENNA</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>05/05/2023</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>3100-3100-33018</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>ABS Absence</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>05/05/2023 06:30</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="inlineStr"/>
+      <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr"/>
+      <c r="Q80" t="inlineStr"/>
+      <c r="R80" t="inlineStr"/>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/PERIOP-OR/TECH|3100-3100-33018</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr"/>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>ROSARIO, JOSE</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>04/24/2023</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>3100-3100-33018</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>04/24/2023 06:23</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="inlineStr"/>
+      <c r="O81" t="inlineStr"/>
+      <c r="P81" t="inlineStr"/>
+      <c r="Q81" t="inlineStr"/>
+      <c r="R81" t="inlineStr"/>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/PERIOP-OR/TECH|3100-3100-33018</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr"/>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>ROSARIO, JOSE</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>04/25/2023</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>3100-3100-33018</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>04/25/2023 06:25</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>12.25</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="inlineStr"/>
+      <c r="O82" t="inlineStr"/>
+      <c r="P82" t="inlineStr"/>
+      <c r="Q82" t="inlineStr"/>
+      <c r="R82" t="inlineStr"/>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/PERIOP-OR/TECH|3100-3100-33018</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr"/>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>ROSARIO, JOSE</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>04/26/2023</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>3100-3100-33018</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>04/26/2023 06:31</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="inlineStr"/>
+      <c r="O83" t="inlineStr"/>
+      <c r="P83" t="inlineStr"/>
+      <c r="Q83" t="inlineStr"/>
+      <c r="R83" t="inlineStr"/>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/PERIOP-OR/TECH|3100-3100-33018</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr"/>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>ROSARIO, JOSE</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>05/01/2023</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>3100-3100-33018</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>ABS Absence</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>05/01/2023 06:30</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="inlineStr"/>
+      <c r="O84" t="inlineStr"/>
+      <c r="P84" t="inlineStr"/>
+      <c r="Q84" t="inlineStr"/>
+      <c r="R84" t="inlineStr"/>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/PERIOP-OR/TECH|3100-3100-33018</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr"/>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>ROSARIO, JOSE</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>05/04/2023</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>3100-3100-33018</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>05/04/2023 06:29</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="inlineStr"/>
+      <c r="O85" t="inlineStr"/>
+      <c r="P85" t="inlineStr"/>
+      <c r="Q85" t="inlineStr"/>
+      <c r="R85" t="inlineStr"/>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/PERIOP-OR/TECH|3100-3100-33018</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr"/>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>ROSARIO, JOSE</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>05/04/2023</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>3100-3100-33018</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>On Call</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>05/04/2023 19:00</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="inlineStr"/>
+      <c r="O86" t="inlineStr"/>
+      <c r="P86" t="inlineStr"/>
+      <c r="Q86" t="inlineStr"/>
+      <c r="R86" t="inlineStr"/>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/PERIOP-OR/TECH|3100-3100-33018</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr"/>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>ROSARIO, JOSE</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>05/04/2023</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>3100-3100-33018</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>05/04/2023 19:01</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="inlineStr"/>
+      <c r="O87" t="inlineStr"/>
+      <c r="P87" t="inlineStr"/>
+      <c r="Q87" t="inlineStr"/>
+      <c r="R87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> |  1M1FLA,40,NON,STD,DED,CIN3</t>
+        </is>
+      </c>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/PERIOP-OR/TECH|3100-3100-33018</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr"/>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>ROSARIO, JOSE</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>05/05/2023</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>3100-3100-33018</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Unexcused / Absence</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="inlineStr"/>
+      <c r="O88" t="inlineStr"/>
+      <c r="P88" t="inlineStr"/>
+      <c r="Q88" t="inlineStr"/>
+      <c r="R88" t="inlineStr"/>
+      <c r="S88" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/PERIOP-OR/TECH|3100-3100-33018</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr"/>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>ROSARIO, JOSE</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>05/05/2023</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>3100-3100-33018</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>ABS Absence</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>05/05/2023 00:00</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="inlineStr"/>
+      <c r="O89" t="inlineStr"/>
+      <c r="P89" t="inlineStr"/>
+      <c r="Q89" t="inlineStr"/>
+      <c r="R89" t="inlineStr"/>
+      <c r="S89" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/PERIOP-OR/TECH|3100-3100-33018</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr"/>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>STEED, MARY</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>04/24/2023</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>3103-3103-31100</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Unexcused / Absence</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="inlineStr"/>
+      <c r="O90" t="inlineStr"/>
+      <c r="P90" t="inlineStr"/>
+      <c r="Q90" t="inlineStr"/>
+      <c r="R90" t="inlineStr"/>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/TRADITIONHOSPITAL/CNO/NRS/INPAT-ICU/RN|3103-3103-31100</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr"/>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>STEED, MARY</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>04/26/2023</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>3103-3103-31100</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>ABS Absence</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>04/26/2023 00:00</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="inlineStr"/>
+      <c r="O91" t="inlineStr"/>
+      <c r="P91" t="inlineStr"/>
+      <c r="Q91" t="inlineStr"/>
+      <c r="R91" t="inlineStr"/>
+      <c r="S91" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/TRADITIONHOSPITAL/CNO/NRS/INPAT-ICU/RN|3103-3103-31100</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr"/>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>STEED, MARY</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>04/28/2023</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>3103-3103-31100</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>ABS Absence</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>04/28/2023 00:00</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="inlineStr"/>
+      <c r="O92" t="inlineStr"/>
+      <c r="P92" t="inlineStr"/>
+      <c r="Q92" t="inlineStr"/>
+      <c r="R92" t="inlineStr"/>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/TRADITIONHOSPITAL/CNO/NRS/INPAT-ICU/RN|3103-3103-31100</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr"/>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>STEED, MARY</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>04/30/2023</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>3103-3103-31100</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>ABS Absence</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>04/30/2023 00:00</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="inlineStr"/>
+      <c r="O93" t="inlineStr"/>
+      <c r="P93" t="inlineStr"/>
+      <c r="Q93" t="inlineStr"/>
+      <c r="R93" t="inlineStr"/>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/TRADITIONHOSPITAL/CNO/NRS/INPAT-ICU/RN|3103-3103-31100</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr"/>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>STEED, MARY</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>05/01/2023</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>3103-3103-31100</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>ABS Absence</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>05/01/2023 00:00</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="inlineStr"/>
+      <c r="O94" t="inlineStr"/>
+      <c r="P94" t="inlineStr"/>
+      <c r="Q94" t="inlineStr"/>
+      <c r="R94" t="inlineStr"/>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/TRADITIONHOSPITAL/CNO/NRS/INPAT-ICU/RN|3103-3103-31100</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr"/>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>STEED, MARY</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>05/02/2023</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>3103-3103-31100</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>ABS Absence</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>05/02/2023 00:00</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="inlineStr"/>
+      <c r="O95" t="inlineStr"/>
+      <c r="P95" t="inlineStr"/>
+      <c r="Q95" t="inlineStr"/>
+      <c r="R95" t="inlineStr"/>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/TRADITIONHOSPITAL/CNO/NRS/INPAT-ICU/RN|3103-3103-31100</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr"/>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>VANHORN, JAMES</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>04/23/2023</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>3100-3100-31426</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>04/23/2023 18:53</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="inlineStr"/>
+      <c r="O96" t="inlineStr"/>
+      <c r="P96" t="inlineStr"/>
+      <c r="Q96" t="inlineStr"/>
+      <c r="R96" t="inlineStr"/>
+      <c r="S96" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/INPAT-MED-SURG6E/RN|3100-3100-31426</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr"/>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>VANHORN, JAMES</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>04/27/2023</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>3100-3100-31426</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>ABS Absence</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>04/27/2023 19:00</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="inlineStr"/>
+      <c r="O97" t="inlineStr"/>
+      <c r="P97" t="inlineStr"/>
+      <c r="Q97" t="inlineStr"/>
+      <c r="R97" t="inlineStr"/>
+      <c r="S97" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/INPAT-MED-SURG6E/RN|3100-3100-31426</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr"/>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>VANHORN, JAMES</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>04/28/2023</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>3100-3100-31426</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>04/28/2023 18:53</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="inlineStr"/>
+      <c r="O98" t="inlineStr"/>
+      <c r="P98" t="inlineStr"/>
+      <c r="Q98" t="inlineStr"/>
+      <c r="R98" t="inlineStr"/>
+      <c r="S98" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/INPAT-MED-SURG6E/RN|3100-3100-31426</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr"/>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>VANHORN, JAMES</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>05/01/2023</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>3101-3101-31812</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>05/01/2023 18:57</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="inlineStr"/>
+      <c r="O99" t="inlineStr"/>
+      <c r="P99" t="inlineStr"/>
+      <c r="Q99" t="inlineStr"/>
+      <c r="R99" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINSOUTHHOSPITAL/CNO/NRS/INPAT-CDU3B/RN | Att-Forgot to Punch AGRN,00,NON,DED,SNN,N</t>
+        </is>
+      </c>
+      <c r="S99" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/INPAT-MED-SURG6E/RN|3100-3100-31426</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr"/>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>VANHORN, JAMES</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>05/03/2023</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>3103-3103-31232</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>05/03/2023 18:53</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="inlineStr"/>
+      <c r="O100" t="inlineStr"/>
+      <c r="P100" t="inlineStr"/>
+      <c r="Q100" t="inlineStr"/>
+      <c r="R100" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/TRADITIONHOSPITAL/CNO/NRS/ED-EDHOLDINGOVERFLOW/RN |  AGRN,00,NON,DED,SNN,N</t>
+        </is>
+      </c>
+      <c r="S100" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/INPAT-MED-SURG6E/RN|3100-3100-31426</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr"/>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>VANHORN, JAMES</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>05/05/2023</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>3100-3100-31426</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>ABS Absence</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>05/05/2023 19:00</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="inlineStr"/>
+      <c r="O101" t="inlineStr"/>
+      <c r="P101" t="inlineStr"/>
+      <c r="Q101" t="inlineStr"/>
+      <c r="R101" t="inlineStr"/>
+      <c r="S101" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/INPAT-MED-SURG6E/RN|3100-3100-31426</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr"/>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>WEISS, DESIREE</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>04/23/2023</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>3103-3103-31414</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>04/23/2023 06:53</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>11.75</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="inlineStr"/>
+      <c r="O102" t="inlineStr"/>
+      <c r="P102" t="inlineStr"/>
+      <c r="Q102" t="inlineStr"/>
+      <c r="R102" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/TRADITIONHOSPITAL/CNO/NRS/INPAT-3RDFLOOR/RN |  AGRN,00,NON,DED,SNN,N</t>
+        </is>
+      </c>
+      <c r="S102" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINSOUTHHOSPITAL/CNO/NRS/INPAT-TELE2A-2C/RN|3101-3101-31437</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr"/>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>WEISS, DESIREE</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>04/24/2023</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>3101-3101-31438</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>04/24/2023 06:54</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="inlineStr"/>
+      <c r="O103" t="inlineStr"/>
+      <c r="P103" t="inlineStr"/>
+      <c r="Q103" t="inlineStr"/>
+      <c r="R103" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINSOUTHHOSPITAL/CNO/NRS/INPAT-MED-TELE3C/RN |  AGRN,00,NON,DED,SNN,N</t>
+        </is>
+      </c>
+      <c r="S103" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINSOUTHHOSPITAL/CNO/NRS/INPAT-TELE2A-2C/RN|3101-3101-31437</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr"/>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>WEISS, DESIREE</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>04/25/2023</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr"/>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>3101-3101-31437</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>04/25/2023 06:56</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>12.50</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="inlineStr"/>
+      <c r="O104" t="inlineStr"/>
+      <c r="P104" t="inlineStr"/>
+      <c r="Q104" t="inlineStr"/>
+      <c r="R104" t="inlineStr"/>
+      <c r="S104" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINSOUTHHOSPITAL/CNO/NRS/INPAT-TELE2A-2C/RN|3101-3101-31437</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr"/>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>WEISS, DESIREE</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>05/04/2023</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>3101-3101-31437</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>ABS Absence</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>05/04/2023 07:00</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="inlineStr"/>
+      <c r="O105" t="inlineStr"/>
+      <c r="P105" t="inlineStr"/>
+      <c r="Q105" t="inlineStr"/>
+      <c r="R105" t="inlineStr"/>
+      <c r="S105" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINSOUTHHOSPITAL/CNO/NRS/INPAT-TELE2A-2C/RN|3101-3101-31437</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr"/>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>WEISS, DESIREE</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>05/05/2023</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr"/>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>3101-3101-31437</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>05/05/2023 07:02</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="inlineStr"/>
+      <c r="O106" t="inlineStr"/>
+      <c r="P106" t="inlineStr"/>
+      <c r="Q106" t="inlineStr"/>
+      <c r="R106" t="inlineStr"/>
+      <c r="S106" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINSOUTHHOSPITAL/CNO/NRS/INPAT-TELE2A-2C/RN|3101-3101-31437</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr"/>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>WEISS, DESIREE</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>05/06/2023</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>3101-3101-31437</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>05/06/2023 06:56</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="inlineStr"/>
+      <c r="O107" t="inlineStr"/>
+      <c r="P107" t="inlineStr"/>
+      <c r="Q107" t="inlineStr"/>
+      <c r="R107" t="inlineStr"/>
+      <c r="S107" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINSOUTHHOSPITAL/CNO/NRS/INPAT-TELE2A-2C/RN|3101-3101-31437</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr"/>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>YOUNG, ELIZABETH</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>04/24/2023</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr"/>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>3103-3103-31232</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>04/24/2023 07:06</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>12.75</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="inlineStr"/>
+      <c r="O108" t="inlineStr"/>
+      <c r="P108" t="inlineStr"/>
+      <c r="Q108" t="inlineStr"/>
+      <c r="R108" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/TRADITIONHOSPITAL/CNO/NRS/ED-EDHOLDINGOVERFLOW/RN |  AGRN,00,NON,DED,SNN,N</t>
+        </is>
+      </c>
+      <c r="S108" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/INPAT-MED-SURG6E/RN|3100-3100-31426</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr"/>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>YOUNG, ELIZABETH</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>04/26/2023</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr"/>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>3100-3100-31232</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>04/26/2023 07:12</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="inlineStr"/>
+      <c r="O109" t="inlineStr"/>
+      <c r="P109" t="inlineStr"/>
+      <c r="Q109" t="inlineStr"/>
+      <c r="R109" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/ED-EDHOLDINGOVERFLOW/RN |  AGRN,00,NON,DED,SNN,N</t>
+        </is>
+      </c>
+      <c r="S109" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/INPAT-MED-SURG6E/RN|3100-3100-31426</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr"/>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>YOUNG, ELIZABETH</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>04/28/2023</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr"/>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>3100-3100-31426</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>04/28/2023 07:01</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>12.50</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="inlineStr"/>
+      <c r="O110" t="inlineStr"/>
+      <c r="P110" t="inlineStr"/>
+      <c r="Q110" t="inlineStr"/>
+      <c r="R110" t="inlineStr"/>
+      <c r="S110" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/INPAT-MED-SURG6E/RN|3100-3100-31426</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr"/>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>YOUNG, ELIZABETH</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>05/01/2023</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr"/>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>3100-3100-31426</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>05/01/2023 07:07</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>13.00</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="inlineStr"/>
+      <c r="O111" t="inlineStr"/>
+      <c r="P111" t="inlineStr"/>
+      <c r="Q111" t="inlineStr"/>
+      <c r="R111" t="inlineStr"/>
+      <c r="S111" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/INPAT-MED-SURG6E/RN|3100-3100-31426</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr"/>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>YOUNG, ELIZABETH</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>05/02/2023</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr"/>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>3100-3100-31232</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>05/02/2023 07:05</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>12.50</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="inlineStr"/>
+      <c r="O112" t="inlineStr"/>
+      <c r="P112" t="inlineStr"/>
+      <c r="Q112" t="inlineStr"/>
+      <c r="R112" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/ED-EDHOLDINGOVERFLOW/RN |  AGRN,00,NON,DED,SNN,N</t>
+        </is>
+      </c>
+      <c r="S112" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/INPAT-MED-SURG6E/RN|3100-3100-31426</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr"/>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>YOUNG, ELIZABETH</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>05/05/2023</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr"/>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>3100-3100-31426</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>05/05/2023 06:58</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="inlineStr"/>
+      <c r="O113" t="inlineStr"/>
+      <c r="P113" t="inlineStr"/>
+      <c r="Q113" t="inlineStr"/>
+      <c r="R113" t="inlineStr"/>
+      <c r="S113" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINNORTHHOSPITAL/CNO/NRS/INPAT-MED-SURG6E/RN|3100-3100-31426</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr"/>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>YOUNG, RODNEY</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>04/23/2023</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr"/>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>3101-3101-33018</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>04/23/2023 09:43</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="inlineStr"/>
+      <c r="O114" t="inlineStr"/>
+      <c r="P114" t="inlineStr"/>
+      <c r="Q114" t="inlineStr"/>
+      <c r="R114" t="inlineStr"/>
+      <c r="S114" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINSOUTHHOSPITAL/CNO/NRS/PERIOP-OR/TECH|3101-3101-33018</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr"/>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>YOUNG, RODNEY</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>04/23/2023</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr"/>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>3101-3101-33018</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>On Call</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>04/23/2023 17:00</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="inlineStr"/>
+      <c r="O115" t="inlineStr"/>
+      <c r="P115" t="inlineStr"/>
+      <c r="Q115" t="inlineStr"/>
+      <c r="R115" t="inlineStr"/>
+      <c r="S115" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINSOUTHHOSPITAL/CNO/NRS/PERIOP-OR/TECH|3101-3101-33018</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr"/>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>YOUNG, RODNEY</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>04/24/2023</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr"/>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>3101-3101-33018</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>04/24/2023 08:27</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="inlineStr"/>
+      <c r="O116" t="inlineStr"/>
+      <c r="P116" t="inlineStr"/>
+      <c r="Q116" t="inlineStr"/>
+      <c r="R116" t="inlineStr"/>
+      <c r="S116" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINSOUTHHOSPITAL/CNO/NRS/PERIOP-OR/TECH|3101-3101-33018</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr"/>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>YOUNG, RODNEY</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>04/24/2023</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>3101-3101-33018</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>04/24/2023 17:00</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>10.75</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
+      <c r="O117" t="inlineStr"/>
+      <c r="P117" t="inlineStr"/>
+      <c r="Q117" t="inlineStr"/>
+      <c r="R117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> |  1M1FLA,40,NON,STD,DED,CIN3</t>
+        </is>
+      </c>
+      <c r="S117" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINSOUTHHOSPITAL/CNO/NRS/PERIOP-OR/TECH|3101-3101-33018</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr"/>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>YOUNG, RODNEY</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>04/25/2023</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>3101-3101-33018</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>04/25/2023 08:27</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="inlineStr"/>
+      <c r="O118" t="inlineStr"/>
+      <c r="P118" t="inlineStr"/>
+      <c r="Q118" t="inlineStr"/>
+      <c r="R118" t="inlineStr"/>
+      <c r="S118" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINSOUTHHOSPITAL/CNO/NRS/PERIOP-OR/TECH|3101-3101-33018</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr"/>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>YOUNG, RODNEY</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>04/26/2023</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr"/>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>3101-3101-33018</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>04/26/2023 08:28</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="inlineStr"/>
+      <c r="O119" t="inlineStr"/>
+      <c r="P119" t="inlineStr"/>
+      <c r="Q119" t="inlineStr"/>
+      <c r="R119" t="inlineStr"/>
+      <c r="S119" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINSOUTHHOSPITAL/CNO/NRS/PERIOP-OR/TECH|3101-3101-33018</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr"/>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>YOUNG, RODNEY</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>04/27/2023</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>3101-3101-33018</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>04/27/2023 08:26</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="inlineStr"/>
+      <c r="O120" t="inlineStr"/>
+      <c r="P120" t="inlineStr"/>
+      <c r="Q120" t="inlineStr"/>
+      <c r="R120" t="inlineStr"/>
+      <c r="S120" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINSOUTHHOSPITAL/CNO/NRS/PERIOP-OR/TECH|3101-3101-33018</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr"/>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>YOUNG, RODNEY</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>05/01/2023</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr"/>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>3101-3101-33018</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Excused Absence</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr"/>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="inlineStr"/>
+      <c r="O121" t="inlineStr"/>
+      <c r="P121" t="inlineStr"/>
+      <c r="Q121" t="inlineStr"/>
+      <c r="R121" t="inlineStr"/>
+      <c r="S121" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINSOUTHHOSPITAL/CNO/NRS/PERIOP-OR/TECH|3101-3101-33018</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr"/>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>YOUNG, RODNEY</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>05/01/2023</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr"/>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>3101-3101-33018</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>LOWWI - UnPd / Weekender LOW</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>05/01/2023 00:00</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="inlineStr"/>
+      <c r="O122" t="inlineStr"/>
+      <c r="P122" t="inlineStr"/>
+      <c r="Q122" t="inlineStr"/>
+      <c r="R122" t="inlineStr"/>
+      <c r="S122" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINSOUTHHOSPITAL/CNO/NRS/PERIOP-OR/TECH|3101-3101-33018</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr"/>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>YOUNG, RODNEY</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>05/01/2023</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr"/>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>3101-3101-33018</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>On Call</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>05/01/2023 17:00</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="inlineStr"/>
+      <c r="O123" t="inlineStr"/>
+      <c r="P123" t="inlineStr"/>
+      <c r="Q123" t="inlineStr"/>
+      <c r="R123" t="inlineStr"/>
+      <c r="S123" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINSOUTHHOSPITAL/CNO/NRS/PERIOP-OR/TECH|3101-3101-33018</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr"/>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>YOUNG, RODNEY</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>05/02/2023</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr"/>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>3101-3101-33018</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>05/02/2023 06:30</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>10.25</t>
+        </is>
+      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="inlineStr"/>
+      <c r="O124" t="inlineStr"/>
+      <c r="P124" t="inlineStr"/>
+      <c r="Q124" t="inlineStr"/>
+      <c r="R124" t="inlineStr"/>
+      <c r="S124" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINSOUTHHOSPITAL/CNO/NRS/PERIOP-OR/TECH|3101-3101-33018</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr"/>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>YOUNG, RODNEY</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>05/03/2023</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr"/>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>3101-3101-33018</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>LOWV - UnPaid / LOW Voluntary</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>05/03/2023 00:00</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="inlineStr"/>
+      <c r="O125" t="inlineStr"/>
+      <c r="P125" t="inlineStr"/>
+      <c r="Q125" t="inlineStr"/>
+      <c r="R125" t="inlineStr"/>
+      <c r="S125" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINSOUTHHOSPITAL/CNO/NRS/PERIOP-OR/TECH|3101-3101-33018</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr"/>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>YOUNG, RODNEY</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>05/03/2023</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr"/>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>3101-3101-33018</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>05/03/2023 06:27</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="inlineStr"/>
+      <c r="O126" t="inlineStr"/>
+      <c r="P126" t="inlineStr"/>
+      <c r="Q126" t="inlineStr"/>
+      <c r="R126" t="inlineStr"/>
+      <c r="S126" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINSOUTHHOSPITAL/CNO/NRS/PERIOP-OR/TECH|3101-3101-33018</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr"/>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>YOUNG, RODNEY</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>05/05/2023</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr"/>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>3101-3101-85211</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>05/05/2023 06:26</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="inlineStr"/>
+      <c r="O127" t="inlineStr"/>
+      <c r="P127" t="inlineStr"/>
+      <c r="Q127" t="inlineStr"/>
+      <c r="R127" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> | CC:3101-3101-85211-0-0-0-0-0 |  AGRN,00,NON,DED,SNN,N</t>
+        </is>
+      </c>
+      <c r="S127" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINSOUTHHOSPITAL/CNO/NRS/PERIOP-OR/TECH|3101-3101-33018</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr"/>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>YOUNG, RODNEY</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>05/05/2023</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr"/>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>3101-3101-33018</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>05/05/2023 13:00</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="inlineStr"/>
+      <c r="O128" t="inlineStr"/>
+      <c r="P128" t="inlineStr"/>
+      <c r="Q128" t="inlineStr"/>
+      <c r="R128" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> | CC:3101-3101-33018-0-0-0-0-0 |  AGRN,00,NON,DED,SNN,N</t>
+        </is>
+      </c>
+      <c r="S128" t="inlineStr">
+        <is>
+          <t>CC/MARTIN/MARTINSOUTHHOSPITAL/CNO/NRS/PERIOP-OR/TECH|3101-3101-33018</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
